--- a/Examples/AHP_Ratings_Employee_Evaluation/Ratings_Employee_Eval_ratingstable_filledin.xlsx
+++ b/Examples/AHP_Ratings_Employee_Evaluation/Ratings_Employee_Eval_ratingstable_filledin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/AHP_Ratings_Employee_Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4264672-DC31-3941-AD02-953E0082931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ECD821-3B29-064C-BED1-99AC51603205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3140" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="8200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rating_scales" sheetId="1" r:id="rId1"/>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2155,7 +2155,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2226,7 +2226,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>2</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="J15" s="20">
         <f>I15/SUM(I15:I19)</f>
-        <v>0.25291118385313865</v>
+        <v>0.23886742944924011</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="E16" s="8">
         <f>INDEX(rating_scales!I31:I34, MATCH(E3,rating_scales!A31:A34, 0))</f>
-        <v>0.3590000000000001</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
         <f>INDEX(rating_scales!J40:J44, MATCH(F3,rating_scales!A40:A44, 0))</f>
@@ -2457,11 +2457,11 @@
       </c>
       <c r="I16" s="19">
         <f>SUMPRODUCT(B16:H16,B13:H13)</f>
-        <v>0.63526699197557968</v>
+        <v>0.86773235642760571</v>
       </c>
       <c r="J16" s="20">
         <f>I16/SUM(I15:I19)</f>
-        <v>0.16066612700336619</v>
+        <v>0.20727299742979396</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="J17" s="20">
         <f>I17/SUM(I15:I19)</f>
-        <v>0.13555092766147539</v>
+        <v>0.12802400098193481</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="J18" s="20">
         <f>I18/SUM(I15:I19)</f>
-        <v>0.21502425254534369</v>
+        <v>0.20308429897103999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2584,10 +2584,226 @@
       </c>
       <c r="J19" s="20">
         <f>I19/SUM(I15:I19)</f>
-        <v>0.23584750893667616</v>
+        <v>0.22275127316799115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="35">
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A3:A7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A3:A7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A3:A7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A3:A7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A3:A7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A13:A16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A13:A16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000007000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A13:A16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000008000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A13:A16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000009000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A13:A16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A22:A25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A22:A25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A22:A25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A22:A25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A22:A25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000F000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A31:A34</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000010000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A31:A34</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000011000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A31:A34</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000012000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A31:A34</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000013000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A31:A34</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000014000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A40:A44</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000015000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A40:A44</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000016000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A40:A44</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000017000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A40:A44</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000018000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A40:A44</xm:f>
+          </x14:formula1>
+          <xm:sqref>F6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000019000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A50:A53</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00001A000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A50:A53</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00001B000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A50:A53</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00001C000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A50:A53</xm:f>
+          </x14:formula1>
+          <xm:sqref>G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00001D000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A50:A53</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00001E000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A59:A62</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00001F000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A59:A62</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000020000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A59:A62</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000021000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A59:A62</xm:f>
+          </x14:formula1>
+          <xm:sqref>H5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000022000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A59:A62</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>